--- a/Implementation/configs/f.xlsx
+++ b/Implementation/configs/f.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18883" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -365,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1010</v>
       </c>
@@ -415,7 +415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -429,7 +429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1030</v>
       </c>
@@ -443,121 +443,121 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>1037</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>1040</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>1050</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>1060</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>1070</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1073</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>1080</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>1090</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>3005</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3020</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -566,12 +566,12 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>3030</v>
+        <v>3010</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -580,20 +580,76 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
+        <v>3020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3030</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3037</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3073</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>8000</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>80</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>0</v>
       </c>
     </row>

--- a/Implementation/configs/f.xlsx
+++ b/Implementation/configs/f.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -557,21 +557,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>3005</v>
+        <v>1399</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -580,12 +580,12 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -594,12 +594,12 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -608,12 +608,12 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -622,12 +622,12 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>3073</v>
+        <v>3037</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -636,20 +636,34 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
+        <v>3073</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>8000</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>80</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>

--- a/Implementation/configs/f.xlsx
+++ b/Implementation/configs/f.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18883" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18885" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -365,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -387,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1010</v>
       </c>
@@ -415,7 +415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1020</v>
       </c>
@@ -429,7 +429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1030</v>
       </c>
@@ -443,7 +443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1037</v>
       </c>
@@ -457,7 +457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1040</v>
       </c>
@@ -471,7 +471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1050</v>
       </c>
@@ -485,7 +485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1060</v>
       </c>
@@ -499,7 +499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1070</v>
       </c>
@@ -513,7 +513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1073</v>
       </c>
@@ -527,7 +527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1080</v>
       </c>
@@ -541,7 +541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1090</v>
       </c>
@@ -555,7 +555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1399</v>
       </c>
@@ -569,101 +569,157 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>3002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>3005</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>3010</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3016</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>3020</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>3030</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>3037</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>3073</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>8000</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>80</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>0</v>
       </c>
     </row>

--- a/Implementation/configs/f.xlsx
+++ b/Implementation/configs/f.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -622,12 +622,12 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -636,12 +636,12 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3016</v>
+        <v>3010</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -650,12 +650,12 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -664,12 +664,12 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -678,12 +678,12 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -692,12 +692,12 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3073</v>
+        <v>3037</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -706,20 +706,34 @@
         <v>30</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>3073</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>8000</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>80</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
